--- a/ブログ登録_単体テスト.xlsx
+++ b/ブログ登録_単体テスト.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FDBDE4B-FBE2-462D-8DB4-3626669FDB58}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64E75AA5-97AB-424B-B004-C22DB6693A3D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="ブログ登録" sheetId="1" r:id="rId1"/>
     <sheet name="ブログ登録確認" sheetId="3" r:id="rId2"/>
-    <sheet name="アカウント登録完了" sheetId="4" r:id="rId3"/>
+    <sheet name="ブログ登録完了" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -239,16 +239,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.XAMPPのMySQLを停止の状態にする</t>
-    <rPh sb="14" eb="16">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.「確認する」ボタンを押す</t>
     <rPh sb="3" eb="5">
       <t>カクニン</t>
@@ -964,6 +954,16 @@
     <t>0/500の表示</t>
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1060,7 +1060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1072,9 +1072,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1089,9 +1086,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1941,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="E4" zoomScale="79" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1953,24 +1947,24 @@
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1979,7 +1973,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1988,17 +1982,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2039,19 +2033,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45993</v>
+        <v>80</v>
+      </c>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -2061,7 +2055,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2077,19 +2071,19 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45993</v>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -2099,7 +2093,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2115,19 +2109,19 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="4">
-        <v>45993</v>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -2137,7 +2131,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2153,19 +2147,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="4">
-        <v>45993</v>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -2175,7 +2169,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2191,19 +2185,19 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="4">
-        <v>45993</v>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -2213,7 +2207,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2232,16 +2226,16 @@
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="4">
-        <v>45993</v>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -2251,7 +2245,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2267,19 +2261,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45993</v>
+        <v>50</v>
+      </c>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -2303,19 +2297,19 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="4">
-        <v>45993</v>
+        <v>51</v>
+      </c>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -2339,19 +2333,19 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="4">
-        <v>45993</v>
+      <c r="G24" s="3">
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -2361,7 +2355,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2377,19 +2371,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="4">
-        <v>45993</v>
+      <c r="G26" s="3">
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -2413,19 +2407,19 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="4">
-        <v>45993</v>
+        <v>27</v>
+      </c>
+      <c r="G28" s="3">
+        <v>46016</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -2435,7 +2429,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2451,19 +2445,19 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="4">
-        <v>45993</v>
+        <v>27</v>
+      </c>
+      <c r="G30" s="3">
+        <v>46016</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -2473,7 +2467,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2489,19 +2483,19 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="4">
-        <v>45993</v>
+        <v>52</v>
+      </c>
+      <c r="G32" s="3">
+        <v>46016</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -2511,7 +2505,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2527,19 +2521,19 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="4">
-        <v>45993</v>
+      <c r="G34" s="3">
+        <v>46016</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -2549,7 +2543,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2565,19 +2559,19 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="G36" s="4">
-        <v>45992</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -2587,7 +2581,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2603,19 +2597,19 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="F38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" s="4">
-        <v>45992</v>
+      <c r="G38" s="3">
+        <v>46016</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -2647,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBAC509-E636-4BFE-BD39-D45C4E1E86E3}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="E1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2659,24 +2653,24 @@
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
@@ -2685,7 +2679,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
@@ -2694,17 +2688,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2743,19 +2737,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45992</v>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -2765,7 +2759,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2781,19 +2775,19 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45992</v>
+        <v>64</v>
+      </c>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -2803,7 +2797,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2819,19 +2813,19 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="4">
-        <v>45992</v>
+        <v>78</v>
+      </c>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -2841,7 +2835,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2860,16 +2854,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="4">
-        <v>45992</v>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -2879,7 +2873,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2895,19 +2889,19 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="4">
-        <v>45992</v>
+        <v>30</v>
+      </c>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -2917,7 +2911,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2933,19 +2927,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45992</v>
+        <v>63</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -2955,7 +2949,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2971,19 +2965,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45992</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -2993,7 +2987,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3017,7 +3011,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3028,24 +3022,24 @@
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
@@ -3054,7 +3048,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
@@ -3063,17 +3057,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46016</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3112,19 +3106,19 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="4">
-        <v>45992</v>
+        <v>77</v>
+      </c>
+      <c r="G9" s="3">
+        <v>46016</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -3134,7 +3128,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3150,19 +3144,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="4">
-        <v>45992</v>
+        <v>76</v>
+      </c>
+      <c r="G11" s="3">
+        <v>46016</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -3172,7 +3166,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3188,19 +3182,19 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="4">
-        <v>45992</v>
+        <v>70</v>
+      </c>
+      <c r="G13" s="3">
+        <v>46016</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -3210,7 +3204,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3226,36 +3220,36 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="4">
-        <v>45992</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
@@ -3263,12 +3257,12 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="8"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
@@ -3279,19 +3273,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45992</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -3301,7 +3295,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
